--- a/reopening_ny.xlsx
+++ b/reopening_ny.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ei\mobility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ei\replicate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new_york_phases" sheetId="1" r:id="rId1"/>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1354,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1915,6 +1915,9 @@
       <c r="F24" s="1">
         <v>44005</v>
       </c>
+      <c r="G24" s="1">
+        <v>44019</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
@@ -1935,6 +1938,9 @@
       <c r="F25" s="1">
         <v>44005</v>
       </c>
+      <c r="G25" s="1">
+        <v>44019</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
@@ -1955,6 +1961,9 @@
       <c r="F26" s="1">
         <v>44005</v>
       </c>
+      <c r="G26" s="1">
+        <v>44019</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
@@ -1975,6 +1984,9 @@
       <c r="F27" s="1">
         <v>44005</v>
       </c>
+      <c r="G27" s="1">
+        <v>44019</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
@@ -1995,6 +2007,9 @@
       <c r="F28" s="1">
         <v>44005</v>
       </c>
+      <c r="G28" s="1">
+        <v>44019</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
@@ -2015,6 +2030,9 @@
       <c r="F29" s="1">
         <v>44005</v>
       </c>
+      <c r="G29" s="1">
+        <v>44019</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
@@ -2035,6 +2053,9 @@
       <c r="F30" s="1">
         <v>44005</v>
       </c>
+      <c r="G30" s="1">
+        <v>44019</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
@@ -2055,6 +2076,9 @@
       <c r="F31" s="1">
         <v>44006</v>
       </c>
+      <c r="G31" s="1">
+        <v>44020</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
@@ -2075,6 +2099,9 @@
       <c r="F32" s="1">
         <v>44006</v>
       </c>
+      <c r="G32" s="1">
+        <v>44020</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
@@ -2233,6 +2260,9 @@
       <c r="F39" s="1">
         <v>44018</v>
       </c>
+      <c r="G39" s="1">
+        <v>44032</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
@@ -2253,6 +2283,9 @@
       <c r="F40" s="1">
         <v>44018</v>
       </c>
+      <c r="G40" s="1">
+        <v>44032</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
@@ -2273,6 +2306,9 @@
       <c r="F41" s="1">
         <v>44018</v>
       </c>
+      <c r="G41" s="1">
+        <v>44032</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
@@ -2293,6 +2329,9 @@
       <c r="F42" s="1">
         <v>44018</v>
       </c>
+      <c r="G42" s="1">
+        <v>44032</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
@@ -2312,6 +2351,9 @@
       </c>
       <c r="F43" s="1">
         <v>44018</v>
+      </c>
+      <c r="G43" s="1">
+        <v>44032</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">

--- a/reopening_ny.xlsx
+++ b/reopening_ny.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="new_york_phases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
   <si>
     <t>title</t>
   </si>
@@ -556,13 +556,28 @@
   </si>
   <si>
     <t>zoos</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>civic and social organizations</t>
+  </si>
+  <si>
+    <t>other personal service</t>
+  </si>
+  <si>
+    <t>other professional, scientific, and technical services</t>
+  </si>
+  <si>
+    <t>this isn't in the reopening orders explicitly at any point, but seems to be open by now</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +598,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -606,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -614,6 +635,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -895,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1186,7 +1208,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1195,15 +1217,15 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>722</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1212,26 +1234,29 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>8121</v>
+        <v>722</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="4">
-        <v>5121</v>
+      <c r="D22">
+        <v>8121</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1239,8 +1264,8 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>6112</v>
+      <c r="D23" s="4">
+        <v>5121</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -1254,12 +1279,12 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>6113</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1268,12 +1293,12 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>8131</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -1282,12 +1307,12 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>712</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1296,48 +1321,113 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>712</v>
+        <v>8134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>8129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>5419</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>174</v>
       </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
         <v>712</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="6" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>51211</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="6" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
         <v>71213</v>
       </c>
     </row>
@@ -1354,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/reopening_ny.xlsx
+++ b/reopening_ny.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="184">
   <si>
     <t>title</t>
   </si>
@@ -558,9 +558,6 @@
     <t>zoos</t>
   </si>
   <si>
-    <t>transport</t>
-  </si>
-  <si>
     <t>civic and social organizations</t>
   </si>
   <si>
@@ -571,6 +568,15 @@
   </si>
   <si>
     <t>this isn't in the reopening orders explicitly at any point, but seems to be open by now</t>
+  </si>
+  <si>
+    <t>transportation and warehousing</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>private households</t>
   </si>
 </sst>
 </file>
@@ -917,18 +923,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -959,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -973,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -987,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>51213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>71394</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>7132</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>8111</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -1206,12 +1212,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1220,214 +1226,265 @@
         <v>48</v>
       </c>
       <c r="E20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
         <v>722</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>162</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
         <v>8121</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>165</v>
       </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
         <v>5121</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>166</v>
       </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
         <v>6112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>166</v>
       </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
         <v>6113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>171</v>
       </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
         <v>8131</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>814</v>
+      </c>
+      <c r="E29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>8134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>178</v>
       </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>8134</v>
-      </c>
-      <c r="E27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>8129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>8129</v>
-      </c>
-      <c r="E28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="7" t="s">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>5419</v>
+      </c>
+      <c r="E32" t="s">
         <v>180</v>
       </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>5419</v>
-      </c>
-      <c r="E29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>172</v>
       </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>712</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>173</v>
       </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>174</v>
       </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
         <v>712</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="6" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <v>51211</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="6" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
         <v>71213</v>
       </c>
     </row>
@@ -1444,19 +1501,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="C1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="2"/>
-    <col min="4" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -1479,7 +1536,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1502,7 +1559,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1525,7 +1582,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1548,7 +1605,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1572,7 +1629,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1595,7 +1652,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1618,7 +1675,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1641,7 +1698,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -1664,7 +1721,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1687,7 +1744,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1710,7 +1767,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1733,7 +1790,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1756,7 +1813,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1779,7 +1836,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1802,7 +1859,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1825,7 +1882,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1848,7 +1905,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1871,7 +1928,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1894,7 +1951,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1917,7 +1974,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1940,7 +1997,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1963,7 +2020,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1986,7 +2043,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2009,7 +2066,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2032,7 +2089,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2055,7 +2112,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2078,7 +2135,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2101,7 +2158,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -2124,7 +2181,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -2147,7 +2204,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2170,7 +2227,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -2193,7 +2250,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2273,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2239,7 +2296,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2262,7 +2319,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2285,7 +2342,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2308,7 +2365,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -2331,7 +2388,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -2354,7 +2411,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -2377,7 +2434,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -2400,7 +2457,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -2423,7 +2480,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -2446,7 +2503,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2469,7 +2526,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2492,7 +2549,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2515,7 +2572,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2538,7 +2595,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2561,7 +2618,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2584,7 +2641,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2607,7 +2664,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2630,7 +2687,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -2653,7 +2710,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -2676,7 +2733,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2699,7 +2756,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -2722,7 +2779,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2745,7 +2802,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -2768,7 +2825,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -2791,7 +2848,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2814,7 +2871,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -2837,7 +2894,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -2860,7 +2917,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -2883,7 +2940,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
